--- a/data/kbvreport_export/faktenblatttabellen_2021-05-16.xlsx
+++ b/data/kbvreport_export/faktenblatttabellen_2021-05-16.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="345">
   <si>
     <t xml:space="preserve">Testungen</t>
   </si>
@@ -780,7 +780,7 @@
     <t xml:space="preserve">Geimpfte Personen</t>
   </si>
   <si>
-    <t xml:space="preserve">Stand 18.5.</t>
+    <t xml:space="preserve">Stand 19.5.</t>
   </si>
   <si>
     <t xml:space="preserve">Anteil_Veraenderung</t>
@@ -789,37 +789,34 @@
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">27711114 (33,3 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31150725 (37,5 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,1 PP</t>
+    <t xml:space="preserve">28544440 (34,3 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31671431 (38,1 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3,8 PP</t>
   </si>
   <si>
     <t xml:space="preserve">Nicht vollst. geimpft</t>
   </si>
   <si>
-    <t xml:space="preserve">19688224 (23,7 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21602704 (26,0 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,3 PP</t>
+    <t xml:space="preserve">20223760 (24,3 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21779476 (26,2 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,9 PP</t>
   </si>
   <si>
     <t xml:space="preserve">Vollst. geimpft</t>
   </si>
   <si>
-    <t xml:space="preserve">8022890 ( 9,6 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9548021 (11,5 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,8 PP</t>
+    <t xml:space="preserve">8320680 (10,0 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9891955 (11,9 %)</t>
   </si>
   <si>
     <t xml:space="preserve">Impffortschritt</t>
@@ -837,25 +834,25 @@
     <t xml:space="preserve">  NA %</t>
   </si>
   <si>
-    <t xml:space="preserve">4969941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4861406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2,2 %</t>
+    <t xml:space="preserve">4974055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4874295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2,0 %</t>
   </si>
   <si>
     <t xml:space="preserve">davon in Impfzentren</t>
   </si>
   <si>
-    <t xml:space="preserve">2587371 ( 52,1 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2569017 ( 52,8 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0,7 %</t>
+    <t xml:space="preserve">2591485 ( 52,1 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2581906 ( 53 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0,4 %</t>
   </si>
   <si>
     <t xml:space="preserve">davon in ärztl. Praxen</t>
@@ -864,7 +861,7 @@
     <t xml:space="preserve">2382570 ( 47,9 %)</t>
   </si>
   <si>
-    <t xml:space="preserve">2292389 ( 47,2 %)</t>
+    <t xml:space="preserve">2292389 ( 47 %)</t>
   </si>
   <si>
     <t xml:space="preserve">-3,8 %</t>
@@ -879,91 +876,88 @@
     <t xml:space="preserve">Gesamt vollst.</t>
   </si>
   <si>
-    <t xml:space="preserve">37,5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11,5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36,8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38,5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10,7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34,3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12,9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32,6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38,3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36,5</t>
+    <t xml:space="preserve">38,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11,9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12,8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38,9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15,5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36,9</t>
   </si>
   <si>
     <t xml:space="preserve">10,6</t>
   </si>
   <si>
-    <t xml:space="preserve">10,3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39,4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38,7</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9,7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39,6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35,7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41,8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32,4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15,3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35,9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11,6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13,9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34,1</t>
+    <t xml:space="preserve">40,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13,6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15,7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34,7</t>
   </si>
   <si>
     <t xml:space="preserve">Impfstoffdosen</t>
@@ -975,28 +969,28 @@
     <t xml:space="preserve">Biontech/Pfizer</t>
   </si>
   <si>
-    <t xml:space="preserve">26318180 (73,7 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29918662 (73,6 %)</t>
+    <t xml:space="preserve">27168667 (73,8 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30500693 (73,5 %)</t>
   </si>
   <si>
     <t xml:space="preserve">Erstimpfungen</t>
   </si>
   <si>
-    <t xml:space="preserve">19088134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21501257</t>
+    <t xml:space="preserve">19701594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21798846</t>
   </si>
   <si>
     <t xml:space="preserve">Zweitimpfungen</t>
   </si>
   <si>
-    <t xml:space="preserve">7230046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8417405</t>
+    <t xml:space="preserve">7467073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8701847</t>
   </si>
   <si>
     <t xml:space="preserve">geliefert</t>
@@ -1011,22 +1005,22 @@
     <t xml:space="preserve">Moderna</t>
   </si>
   <si>
-    <t xml:space="preserve">2375361 ( 6,7 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2882187 ( 7,1 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1809562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2173111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">565799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">709076</t>
+    <t xml:space="preserve">2463861 ( 6,7 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2983620 ( 7,2 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1870450</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2245148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">593411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">738472</t>
   </si>
   <si>
     <t xml:space="preserve">3669600</t>
@@ -1038,22 +1032,22 @@
     <t xml:space="preserve">AstraZeneca</t>
   </si>
   <si>
-    <t xml:space="preserve">6991965 (19,6 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7785615 (19,2 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6789169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7420216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">202796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">365399</t>
+    <t xml:space="preserve">7176720 (19,5 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7956357 (19,2 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6944460</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7566079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">232260</t>
+  </si>
+  <si>
+    <t xml:space="preserve">390278</t>
   </si>
   <si>
     <t xml:space="preserve">9575999</t>
@@ -1065,10 +1059,10 @@
     <t xml:space="preserve">Johnson&amp;Johnson</t>
   </si>
   <si>
-    <t xml:space="preserve">24249 ( 0,1 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56141 ( 0,1 %)</t>
+    <t xml:space="preserve">27936 ( 0,1 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61358 ( 0,1 %)</t>
   </si>
   <si>
     <t xml:space="preserve">473400</t>
@@ -1503,13 +1497,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -1517,16 +1511,16 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2" t="s">
         <v>265</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D2" t="s">
         <v>266</v>
-      </c>
-      <c r="C2" t="s">
-        <v>266</v>
-      </c>
-      <c r="D2" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="3">
@@ -1534,41 +1528,41 @@
         <v>125</v>
       </c>
       <c r="B3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C3" t="s">
         <v>268</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>269</v>
-      </c>
-      <c r="D3" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B4" t="s">
         <v>271</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>272</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>273</v>
-      </c>
-      <c r="D4" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B5" t="s">
         <v>275</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>276</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>277</v>
-      </c>
-      <c r="D5" t="s">
-        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -1590,13 +1584,13 @@
         <v>152</v>
       </c>
       <c r="B1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C1" t="s">
         <v>279</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>280</v>
-      </c>
-      <c r="D1" t="s">
-        <v>281</v>
       </c>
       <c r="E1" t="s">
         <v>156</v>
@@ -1613,10 +1607,10 @@
         <v>2292389</v>
       </c>
       <c r="C2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D2" t="s">
         <v>282</v>
-      </c>
-      <c r="D2" t="s">
-        <v>283</v>
       </c>
       <c r="E2" t="n">
         <v>73</v>
@@ -1633,10 +1627,10 @@
         <v>284129</v>
       </c>
       <c r="C3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E3" t="n">
         <v>88</v>
@@ -1653,10 +1647,10 @@
         <v>377411</v>
       </c>
       <c r="C4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D4" t="s">
         <v>285</v>
-      </c>
-      <c r="D4" t="s">
-        <v>286</v>
       </c>
       <c r="E4" t="n">
         <v>74</v>
@@ -1673,10 +1667,10 @@
         <v>101643</v>
       </c>
       <c r="C5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D5" t="s">
         <v>287</v>
-      </c>
-      <c r="D5" t="s">
-        <v>288</v>
       </c>
       <c r="E5" t="n">
         <v>62</v>
@@ -1693,10 +1687,10 @@
         <v>73246</v>
       </c>
       <c r="C6" t="s">
+        <v>288</v>
+      </c>
+      <c r="D6" t="s">
         <v>289</v>
-      </c>
-      <c r="D6" t="s">
-        <v>290</v>
       </c>
       <c r="E6" t="n">
         <v>56</v>
@@ -1713,10 +1707,10 @@
         <v>14977</v>
       </c>
       <c r="C7" t="s">
+        <v>290</v>
+      </c>
+      <c r="D7" t="s">
         <v>291</v>
-      </c>
-      <c r="D7" t="s">
-        <v>292</v>
       </c>
       <c r="E7" t="n">
         <v>59</v>
@@ -1733,10 +1727,10 @@
         <v>33311</v>
       </c>
       <c r="C8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D8" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="E8" t="n">
         <v>35</v>
@@ -1753,10 +1747,10 @@
         <v>157642</v>
       </c>
       <c r="C9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E9" t="n">
         <v>81</v>
@@ -1773,10 +1767,10 @@
         <v>51121</v>
       </c>
       <c r="C10" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E10" t="n">
         <v>53</v>
@@ -1793,10 +1787,10 @@
         <v>219822</v>
       </c>
       <c r="C11" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D11" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E11" t="n">
         <v>50</v>
@@ -1813,10 +1807,10 @@
         <v>562448</v>
       </c>
       <c r="C12" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D12" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="E12" t="n">
         <v>80</v>
@@ -1833,10 +1827,10 @@
         <v>115454</v>
       </c>
       <c r="C13" t="s">
+        <v>299</v>
+      </c>
+      <c r="D13" t="s">
         <v>300</v>
-      </c>
-      <c r="D13" t="s">
-        <v>301</v>
       </c>
       <c r="E13" t="n">
         <v>67</v>
@@ -1853,10 +1847,10 @@
         <v>27378</v>
       </c>
       <c r="C14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D14" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="E14" t="n">
         <v>84</v>
@@ -1873,10 +1867,10 @@
         <v>84491</v>
       </c>
       <c r="C15" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D15" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E15" t="n">
         <v>88</v>
@@ -1893,10 +1887,10 @@
         <v>49690</v>
       </c>
       <c r="C16" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D16" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E16" t="n">
         <v>70</v>
@@ -1913,10 +1907,10 @@
         <v>87446</v>
       </c>
       <c r="C17" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D17" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E17" t="n">
         <v>32</v>
@@ -1933,10 +1927,10 @@
         <v>52180</v>
       </c>
       <c r="C18" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D18" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E18" t="n">
         <v>115</v>
@@ -1961,167 +1955,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C2" t="s">
         <v>313</v>
-      </c>
-      <c r="B2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C2" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>314</v>
+      </c>
+      <c r="B3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C3" t="s">
         <v>316</v>
-      </c>
-      <c r="B3" t="s">
-        <v>317</v>
-      </c>
-      <c r="C3" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B4" t="s">
+        <v>318</v>
+      </c>
+      <c r="C4" t="s">
         <v>319</v>
-      </c>
-      <c r="B4" t="s">
-        <v>320</v>
-      </c>
-      <c r="C4" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>320</v>
+      </c>
+      <c r="B5" t="s">
+        <v>321</v>
+      </c>
+      <c r="C5" t="s">
         <v>322</v>
-      </c>
-      <c r="B5" t="s">
-        <v>323</v>
-      </c>
-      <c r="C5" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>323</v>
+      </c>
+      <c r="B6" t="s">
+        <v>324</v>
+      </c>
+      <c r="C6" t="s">
         <v>325</v>
-      </c>
-      <c r="B6" t="s">
-        <v>326</v>
-      </c>
-      <c r="C6" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B8" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C8" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C9" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>332</v>
+      </c>
+      <c r="B10" t="s">
+        <v>333</v>
+      </c>
+      <c r="C10" t="s">
         <v>334</v>
-      </c>
-      <c r="B10" t="s">
-        <v>335</v>
-      </c>
-      <c r="C10" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B11" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C11" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B12" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C12" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B13" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C13" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>341</v>
+      </c>
+      <c r="B14" t="s">
+        <v>342</v>
+      </c>
+      <c r="C14" t="s">
         <v>343</v>
-      </c>
-      <c r="B14" t="s">
-        <v>344</v>
-      </c>
-      <c r="C14" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B15" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C15" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -3621,7 +3615,7 @@
         <v>261</v>
       </c>
       <c r="D5" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
